--- a/data/trans_orig/P1407-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1407-Provincia-trans_orig.xlsx
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6959</v>
+        <v>6070</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.006687874307369043</v>
@@ -754,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02361192871487501</v>
+        <v>0.02059363725666608</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -763,19 +763,19 @@
         <v>8729</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3705</v>
+        <v>4001</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>15869</v>
+        <v>17171</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03038823833250081</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01289670967846991</v>
+        <v>0.01392886927962973</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05524617307546163</v>
+        <v>0.05977996914821732</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>10</v>
@@ -784,19 +784,19 @@
         <v>10700</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5666</v>
+        <v>5680</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>19095</v>
+        <v>18679</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01838548524789447</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.009735217597832718</v>
+        <v>0.009759887005250472</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03281012392534271</v>
+        <v>0.03209617288818967</v>
       </c>
     </row>
     <row r="5">
@@ -813,7 +813,7 @@
         <v>292767</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>287779</v>
+        <v>288668</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>294738</v>
@@ -822,7 +822,7 @@
         <v>0.9933121256926309</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9763880712851249</v>
+        <v>0.9794063627433338</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -834,19 +834,19 @@
         <v>278516</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>271376</v>
+        <v>270074</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>283540</v>
+        <v>283244</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9696117616674992</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9447538269245384</v>
+        <v>0.9402200308517826</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.98710329032153</v>
+        <v>0.9860711307203702</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>528</v>
@@ -855,19 +855,19 @@
         <v>571283</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>562888</v>
+        <v>563304</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>576317</v>
+        <v>576303</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9816145147521055</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9671898760746575</v>
+        <v>0.9679038271118109</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9902647824021675</v>
+        <v>0.9902401129947496</v>
       </c>
     </row>
     <row r="6">
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7092</v>
+        <v>6180</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.003996956429878155</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01402937338628562</v>
+        <v>0.01222501439584358</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>11</v>
@@ -980,19 +980,19 @@
         <v>11677</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6255</v>
+        <v>6204</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>19477</v>
+        <v>19536</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02229499235734313</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01194257841298159</v>
+        <v>0.01184559195837537</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03718671358677073</v>
+        <v>0.03729935862579924</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>13</v>
@@ -1001,19 +1001,19 @@
         <v>13698</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>7462</v>
+        <v>7287</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>24371</v>
+        <v>22199</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01330808333497683</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.007249952293628453</v>
+        <v>0.007079705253864866</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02367749971006947</v>
+        <v>0.02156721420934439</v>
       </c>
     </row>
     <row r="8">
@@ -1030,7 +1030,7 @@
         <v>503506</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>498435</v>
+        <v>499347</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>505527</v>
@@ -1039,7 +1039,7 @@
         <v>0.9960030435701218</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9859706266137143</v>
+        <v>0.9877749856041562</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1051,19 +1051,19 @@
         <v>512088</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>504288</v>
+        <v>504229</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>517510</v>
+        <v>517561</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9777050076426569</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9628132864132295</v>
+        <v>0.9627006413742014</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9880574215870184</v>
+        <v>0.9881544080416247</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>939</v>
@@ -1072,19 +1072,19 @@
         <v>1015594</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1004921</v>
+        <v>1007093</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1021830</v>
+        <v>1022005</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9866919166650232</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9763225002899304</v>
+        <v>0.9784327857906556</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9927500477063714</v>
+        <v>0.9929202947461352</v>
       </c>
     </row>
     <row r="9">
@@ -1179,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4959</v>
+        <v>4049</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.003061651874913334</v>
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01530230400495131</v>
+        <v>0.0124947680953637</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -1213,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>5564</v>
+        <v>5690</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.001491755754327418</v>
@@ -1222,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.008366695751377844</v>
+        <v>0.008555925808895784</v>
       </c>
     </row>
     <row r="11">
@@ -1239,7 +1239,7 @@
         <v>323054</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>319087</v>
+        <v>319997</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>324046</v>
@@ -1248,7 +1248,7 @@
         <v>0.9969383481250866</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9846976959950486</v>
+        <v>0.9875052319046362</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1273,7 +1273,7 @@
         <v>664074</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>659502</v>
+        <v>659376</v>
       </c>
       <c r="T11" s="5" t="n">
         <v>665066</v>
@@ -1282,7 +1282,7 @@
         <v>0.9985082442456725</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9916333042486231</v>
+        <v>0.9914440741911034</v>
       </c>
       <c r="W11" s="6" t="n">
         <v>1</v>
@@ -1390,19 +1390,19 @@
         <v>16887</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10192</v>
+        <v>10581</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>26315</v>
+        <v>26473</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04341615171077078</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02620352464453253</v>
+        <v>0.02720416025795309</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06765712931435443</v>
+        <v>0.06806211578285511</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>17</v>
@@ -1411,19 +1411,19 @@
         <v>16887</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>9808</v>
+        <v>9791</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>25201</v>
+        <v>26075</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02213399209728587</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01285555077664231</v>
+        <v>0.01283316837890004</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0330315098625254</v>
+        <v>0.03417675932089952</v>
       </c>
     </row>
     <row r="14">
@@ -1453,19 +1453,19 @@
         <v>372064</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>362636</v>
+        <v>362478</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>378759</v>
+        <v>378370</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9565838482892293</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9323428706856455</v>
+        <v>0.9319378842171445</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9737964753554673</v>
+        <v>0.972795839742047</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>698</v>
@@ -1474,19 +1474,19 @@
         <v>746046</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>737732</v>
+        <v>736858</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>753125</v>
+        <v>753142</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9778660079027142</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9669684901374747</v>
+        <v>0.9658232406791004</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9871444492233578</v>
+        <v>0.9871668316211</v>
       </c>
     </row>
     <row r="15">
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5882</v>
+        <v>7143</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.005497454665833032</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02766472722477614</v>
+        <v>0.03359661531987874</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>9</v>
@@ -1599,19 +1599,19 @@
         <v>9501</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4245</v>
+        <v>4982</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>16971</v>
+        <v>18975</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04326669494324182</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01933232891539462</v>
+        <v>0.02268593320648274</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07728423553043705</v>
+        <v>0.08641269051339805</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>10</v>
@@ -1620,19 +1620,19 @@
         <v>10670</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5291</v>
+        <v>5408</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>18287</v>
+        <v>19240</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0246867461575786</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01224093830027105</v>
+        <v>0.01251351698816697</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0423114118658196</v>
+        <v>0.04451584043251165</v>
       </c>
     </row>
     <row r="17">
@@ -1649,7 +1649,7 @@
         <v>211449</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>206736</v>
+        <v>205475</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>212618</v>
@@ -1658,7 +1658,7 @@
         <v>0.9945025453341669</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9723352727752239</v>
+        <v>0.9664033846801213</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -1670,19 +1670,19 @@
         <v>210090</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>202620</v>
+        <v>200616</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>215346</v>
+        <v>214609</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9567333050567581</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9227157644695628</v>
+        <v>0.9135873094866018</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9806676710846054</v>
+        <v>0.9773140667935172</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>398</v>
@@ -1691,19 +1691,19 @@
         <v>421539</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>413922</v>
+        <v>412969</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>426918</v>
+        <v>426801</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9753132538424214</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9576885881341802</v>
+        <v>0.955484159567488</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9877590616997289</v>
+        <v>0.9874864830118331</v>
       </c>
     </row>
     <row r="18">
@@ -1811,7 +1811,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>4857</v>
+        <v>4911</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.003510492031880374</v>
@@ -1820,7 +1820,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01746552446340976</v>
+        <v>0.01765782740474162</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1</v>
@@ -1832,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>4909</v>
+        <v>4887</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.00176832823843116</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.00889135857940144</v>
+        <v>0.008852367908216949</v>
       </c>
     </row>
     <row r="20">
@@ -1871,7 +1871,7 @@
         <v>277120</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>273239</v>
+        <v>273185</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>278096</v>
@@ -1880,7 +1880,7 @@
         <v>0.9964895079681196</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9825344755365902</v>
+        <v>0.9823421725952582</v>
       </c>
       <c r="P20" s="6" t="n">
         <v>1</v>
@@ -1892,7 +1892,7 @@
         <v>551101</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>547168</v>
+        <v>547190</v>
       </c>
       <c r="T20" s="5" t="n">
         <v>552077</v>
@@ -1901,7 +1901,7 @@
         <v>0.9982316717615688</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9911086414205986</v>
+        <v>0.9911476320917831</v>
       </c>
       <c r="W20" s="6" t="n">
         <v>1</v>
@@ -1999,7 +1999,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>7108</v>
+        <v>6970</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.003016179571445021</v>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01072464803290513</v>
+        <v>0.01051646704852688</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>10</v>
@@ -2017,19 +2017,19 @@
         <v>12323</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>6309</v>
+        <v>6373</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>23351</v>
+        <v>22605</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01775989030432132</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.009092450208497064</v>
+        <v>0.009185071996021052</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03365469172727336</v>
+        <v>0.03257900666246052</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>12</v>
@@ -2038,19 +2038,19 @@
         <v>14322</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>7415</v>
+        <v>8063</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>24761</v>
+        <v>25653</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01055683875562469</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.005465996895746806</v>
+        <v>0.005943009443381655</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01825178197819544</v>
+        <v>0.01890894493384066</v>
       </c>
     </row>
     <row r="23">
@@ -2067,7 +2067,7 @@
         <v>660789</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>655680</v>
+        <v>655818</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>662788</v>
@@ -2076,7 +2076,7 @@
         <v>0.9969838204285549</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9892753519670949</v>
+        <v>0.9894835329514732</v>
       </c>
       <c r="I23" s="6" t="n">
         <v>1</v>
@@ -2088,19 +2088,19 @@
         <v>681530</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>670502</v>
+        <v>671248</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>687544</v>
+        <v>687480</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9822401096956787</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9663453082727265</v>
+        <v>0.9674209933375396</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9909075497915029</v>
+        <v>0.990814928003979</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1242</v>
@@ -2109,19 +2109,19 @@
         <v>1342319</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1331880</v>
+        <v>1330988</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1349226</v>
+        <v>1348578</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9894431612443753</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9817482180218045</v>
+        <v>0.9810910550661593</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9945340031042532</v>
+        <v>0.9940569905566183</v>
       </c>
     </row>
     <row r="24">
@@ -2216,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>7476</v>
+        <v>6767</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.002748084266913058</v>
@@ -2225,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.009595127711851765</v>
+        <v>0.008685487421762927</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>10</v>
@@ -2234,19 +2234,19 @@
         <v>11524</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>6173</v>
+        <v>6134</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>20374</v>
+        <v>21251</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01403018206935737</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.00751511569798766</v>
+        <v>0.007468012789905935</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02480390061574857</v>
+        <v>0.02587223949196792</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>12</v>
@@ -2255,19 +2255,19 @@
         <v>13665</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>7416</v>
+        <v>7345</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>24218</v>
+        <v>23023</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.008538210299711212</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.004633387928298322</v>
+        <v>0.004588930357216223</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0151312886982149</v>
+        <v>0.01438492964475155</v>
       </c>
     </row>
     <row r="26">
@@ -2284,7 +2284,7 @@
         <v>776957</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>771622</v>
+        <v>772331</v>
       </c>
       <c r="F26" s="5" t="n">
         <v>779098</v>
@@ -2293,7 +2293,7 @@
         <v>0.9972519157330869</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9904048722881482</v>
+        <v>0.9913145125782361</v>
       </c>
       <c r="I26" s="6" t="n">
         <v>1</v>
@@ -2305,19 +2305,19 @@
         <v>809871</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>801021</v>
+        <v>800144</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>815222</v>
+        <v>815261</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9859698179306426</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9751960993842513</v>
+        <v>0.9741277605080321</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9924848843020123</v>
+        <v>0.9925319872100941</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1460</v>
@@ -2326,19 +2326,19 @@
         <v>1586828</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1576275</v>
+        <v>1577470</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1593077</v>
+        <v>1593148</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9914617897002888</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9848687113017851</v>
+        <v>0.9856150703552483</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9953666120717016</v>
+        <v>0.9954110696427838</v>
       </c>
     </row>
     <row r="27">
@@ -2430,19 +2430,19 @@
         <v>10293</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>5230</v>
+        <v>5117</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>19041</v>
+        <v>18603</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.003003646138868004</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.001526222729485489</v>
+        <v>0.001493182563042754</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.005556486535347757</v>
+        <v>0.005428788648755527</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>66</v>
@@ -2451,19 +2451,19 @@
         <v>71617</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>55593</v>
+        <v>55097</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>91741</v>
+        <v>89973</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02015165018109078</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01564266450669088</v>
+        <v>0.01550322524081104</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02581398612333268</v>
+        <v>0.02531665503949433</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>76</v>
@@ -2472,19 +2472,19 @@
         <v>81910</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>65523</v>
+        <v>65340</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>103727</v>
+        <v>101957</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01173380327810851</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.009386367129062349</v>
+        <v>0.009360140195350371</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01485908806244167</v>
+        <v>0.01460561310919648</v>
       </c>
     </row>
     <row r="29">
@@ -2501,19 +2501,19 @@
         <v>3416486</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3407738</v>
+        <v>3408176</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3421549</v>
+        <v>3421662</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9969963538611319</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9944435134646521</v>
+        <v>0.9945712113512445</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9984737772705145</v>
+        <v>0.9985068174369572</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3229</v>
@@ -2522,19 +2522,19 @@
         <v>3482299</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3462175</v>
+        <v>3463943</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3498323</v>
+        <v>3498819</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9798483498189092</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9741860138766673</v>
+        <v>0.9746833449605057</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9843573354933091</v>
+        <v>0.984496774759189</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6428</v>
@@ -2543,19 +2543,19 @@
         <v>6898784</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6876967</v>
+        <v>6878737</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6915171</v>
+        <v>6915354</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9882661967218915</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.985140911937558</v>
+        <v>0.9853943868908035</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9906136328709376</v>
+        <v>0.9906398598046496</v>
       </c>
     </row>
     <row r="30">
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8103</v>
+        <v>6876</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.004207730967123189</v>
@@ -2903,7 +2903,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02758197148032204</v>
+        <v>0.02340779833464208</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>11</v>
@@ -2912,19 +2912,19 @@
         <v>12241</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5931</v>
+        <v>6345</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>20767</v>
+        <v>21511</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04240029323529772</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02054197301625408</v>
+        <v>0.02197738343791295</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07193300578745267</v>
+        <v>0.07450769273211626</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>12</v>
@@ -2933,19 +2933,19 @@
         <v>13477</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7256</v>
+        <v>7331</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>22571</v>
+        <v>22830</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02313818381231537</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01245656994905414</v>
+        <v>0.01258662109119582</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03875088011113272</v>
+        <v>0.03919485884056312</v>
       </c>
     </row>
     <row r="5">
@@ -2962,7 +2962,7 @@
         <v>292525</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>285658</v>
+        <v>286885</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>293761</v>
@@ -2971,7 +2971,7 @@
         <v>0.9957922690328768</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9724180285196786</v>
+        <v>0.9765922016653582</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -2983,19 +2983,19 @@
         <v>276462</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>267936</v>
+        <v>267192</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>282772</v>
+        <v>282358</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9575997067647023</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9280669942125473</v>
+        <v>0.9254923072678839</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.979458026983746</v>
+        <v>0.978022616562087</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>531</v>
@@ -3004,19 +3004,19 @@
         <v>568987</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>559893</v>
+        <v>559634</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>575208</v>
+        <v>575133</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9768618161876846</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9612491198888666</v>
+        <v>0.960805141159437</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9875434300509459</v>
+        <v>0.9874133789088042</v>
       </c>
     </row>
     <row r="6">
@@ -3108,19 +3108,19 @@
         <v>2808</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8380</v>
+        <v>7573</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.005587916851323662</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.00171127595875594</v>
+        <v>0.001707048236109816</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01667465554519332</v>
+        <v>0.0150675072838203</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -3142,19 +3142,19 @@
         <v>2808</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>7742</v>
+        <v>7849</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.002738091648277066</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.000837977509161364</v>
+        <v>0.000839996025959399</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.007548032102480662</v>
+        <v>0.007652517223683496</v>
       </c>
     </row>
     <row r="8">
@@ -3171,19 +3171,19 @@
         <v>499767</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>494195</v>
+        <v>495002</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>501715</v>
+        <v>501717</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9944120831486764</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9833253444548066</v>
+        <v>0.984932492716179</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.998288724041244</v>
+        <v>0.9982929517638902</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>484</v>
@@ -3205,19 +3205,19 @@
         <v>1022851</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1017917</v>
+        <v>1017810</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1024800</v>
+        <v>1024797</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9972619083517229</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9924519678975189</v>
+        <v>0.9923474827763171</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9991620224908386</v>
+        <v>0.9991600039740406</v>
       </c>
     </row>
     <row r="9">
@@ -3309,19 +3309,19 @@
         <v>3519</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10162</v>
+        <v>11253</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01104499549109568</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002897474242879697</v>
+        <v>0.002904827734987599</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0318980339636106</v>
+        <v>0.03532247478575726</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -3330,19 +3330,19 @@
         <v>3205</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>9030</v>
+        <v>9467</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.009529621427896704</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.002660472922002516</v>
+        <v>0.00267106870832464</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02685063628656266</v>
+        <v>0.02814864617511951</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>6</v>
@@ -3351,19 +3351,19 @@
         <v>6723</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2830</v>
+        <v>2742</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>14708</v>
+        <v>14108</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01026677870564123</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.004321908317670678</v>
+        <v>0.004187820143389497</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02245896475044811</v>
+        <v>0.02154307964256519</v>
       </c>
     </row>
     <row r="11">
@@ -3380,19 +3380,19 @@
         <v>315046</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>308403</v>
+        <v>307312</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>317642</v>
+        <v>317640</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9889550045089043</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9681019660363893</v>
+        <v>0.9646775252142424</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9971025257571203</v>
+        <v>0.9970951722650124</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>329</v>
@@ -3401,19 +3401,19 @@
         <v>333104</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>327279</v>
+        <v>326842</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>335414</v>
+        <v>335411</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9904703785721033</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9731493637134375</v>
+        <v>0.9718513538248805</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9973395270779976</v>
+        <v>0.9973289312916754</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>661</v>
@@ -3422,19 +3422,19 @@
         <v>648151</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>640166</v>
+        <v>640766</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>652044</v>
+        <v>652132</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9897332212943588</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.977541035249552</v>
+        <v>0.9784569203574345</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9956780916823296</v>
+        <v>0.9958121798566105</v>
       </c>
     </row>
     <row r="12">
@@ -3529,7 +3529,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4496</v>
+        <v>5438</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.002436678865430427</v>
@@ -3538,7 +3538,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01215290233075474</v>
+        <v>0.01469883480603471</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>7</v>
@@ -3547,19 +3547,19 @@
         <v>8012</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3646</v>
+        <v>3252</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>16891</v>
+        <v>16776</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02068820240922733</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.009414293310806045</v>
+        <v>0.008396184279928236</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0436144784605873</v>
+        <v>0.04331665522003907</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>8</v>
@@ -3568,19 +3568,19 @@
         <v>8914</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4111</v>
+        <v>4131</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>17224</v>
+        <v>18036</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01177115601377787</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.005428863803780574</v>
+        <v>0.005455161735620978</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02274495592160378</v>
+        <v>0.02381843117097427</v>
       </c>
     </row>
     <row r="14">
@@ -3597,7 +3597,7 @@
         <v>369063</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>365468</v>
+        <v>364526</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>369964</v>
@@ -3606,7 +3606,7 @@
         <v>0.9975633211345696</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9878470976692453</v>
+        <v>0.9853011651939653</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -3618,19 +3618,19 @@
         <v>379271</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>370392</v>
+        <v>370507</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>383637</v>
+        <v>384031</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9793117975907727</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9563855215394129</v>
+        <v>0.9566833447799612</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9905857066891945</v>
+        <v>0.9916038157200717</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>704</v>
@@ -3639,19 +3639,19 @@
         <v>748333</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>740023</v>
+        <v>739211</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>753136</v>
+        <v>753116</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9882288439862221</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9772550440783961</v>
+        <v>0.9761815688290257</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9945711361962194</v>
+        <v>0.994544838264379</v>
       </c>
     </row>
     <row r="15">
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4542</v>
+        <v>4157</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.004219695934478713</v>
@@ -3755,7 +3755,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02150393739260321</v>
+        <v>0.01967863622080575</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -3767,7 +3767,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6708</v>
+        <v>7577</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.009304310236110974</v>
@@ -3776,7 +3776,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03068602499720512</v>
+        <v>0.03466207409835537</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3</v>
@@ -3785,19 +3785,19 @@
         <v>2925</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>8086</v>
+        <v>8533</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.006805572862906019</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.002084169193206694</v>
+        <v>0.002065327916022398</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01881245720725106</v>
+        <v>0.01985231524266615</v>
       </c>
     </row>
     <row r="17">
@@ -3814,7 +3814,7 @@
         <v>210330</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>206679</v>
+        <v>207064</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>211221</v>
@@ -3823,7 +3823,7 @@
         <v>0.9957803040655213</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.978496062607397</v>
+        <v>0.9803213637791939</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -3835,7 +3835,7 @@
         <v>216553</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>211879</v>
+        <v>211010</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>218587</v>
@@ -3844,7 +3844,7 @@
         <v>0.990695689763889</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9693139750027945</v>
+        <v>0.9653379259016452</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -3856,19 +3856,19 @@
         <v>426883</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>421722</v>
+        <v>421275</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>428912</v>
+        <v>428920</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9931944271370939</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9811875427927489</v>
+        <v>0.9801476847573334</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9979158308067932</v>
+        <v>0.9979346720839777</v>
       </c>
     </row>
     <row r="18">
@@ -3960,19 +3960,19 @@
         <v>3415</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8235</v>
+        <v>7869</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0129793269535905</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.003078214910268023</v>
+        <v>0.003057145128808734</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03129626469371366</v>
+        <v>0.02990554293947064</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>4</v>
@@ -3981,19 +3981,19 @@
         <v>4475</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>996</v>
+        <v>1009</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>9847</v>
+        <v>11004</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01638670309115062</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.00364853445580333</v>
+        <v>0.003695178809410776</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03605262616409509</v>
+        <v>0.04028908784580883</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>8</v>
@@ -4002,19 +4002,19 @@
         <v>7891</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>3444</v>
+        <v>3667</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>15193</v>
+        <v>15174</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01471476072732377</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.006421598609664014</v>
+        <v>0.006838775940705068</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02833188188099981</v>
+        <v>0.02829792353152274</v>
       </c>
     </row>
     <row r="20">
@@ -4031,19 +4031,19 @@
         <v>259708</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>254888</v>
+        <v>255254</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>262313</v>
+        <v>262319</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9870206730464095</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9687037353062863</v>
+        <v>0.9700944570605294</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9969217850897319</v>
+        <v>0.9969428548711913</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>259</v>
@@ -4052,19 +4052,19 @@
         <v>268640</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>263268</v>
+        <v>262111</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>272119</v>
+        <v>272106</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9836132969088494</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.963947373835906</v>
+        <v>0.9597109121541907</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9963514655441966</v>
+        <v>0.9963048211905893</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>514</v>
@@ -4073,19 +4073,19 @@
         <v>528347</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>521045</v>
+        <v>521064</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>532794</v>
+        <v>532571</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9852852392726762</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9716681181190001</v>
+        <v>0.9717020764684776</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9935784013903359</v>
+        <v>0.9931612240592951</v>
       </c>
     </row>
     <row r="21">
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>6850</v>
+        <v>7150</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.002958982263293666</v>
@@ -4189,7 +4189,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01043311155893063</v>
+        <v>0.0108894664409206</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>14</v>
@@ -4198,19 +4198,19 @@
         <v>16727</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>9317</v>
+        <v>10044</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>27539</v>
+        <v>27705</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02419643753763339</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01347821832925807</v>
+        <v>0.01452872593270233</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03983622883866603</v>
+        <v>0.04007641902271379</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>16</v>
@@ -4219,19 +4219,19 @@
         <v>18670</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>10738</v>
+        <v>11057</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>30385</v>
+        <v>30136</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01385136914492575</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.007966718347444147</v>
+        <v>0.008203085649074578</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02254311365551782</v>
+        <v>0.02235883555888619</v>
       </c>
     </row>
     <row r="23">
@@ -4248,7 +4248,7 @@
         <v>654615</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>649708</v>
+        <v>649408</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>656558</v>
@@ -4257,7 +4257,7 @@
         <v>0.9970410177367063</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9895668884410711</v>
+        <v>0.9891105335590795</v>
       </c>
       <c r="I23" s="6" t="n">
         <v>1</v>
@@ -4269,19 +4269,19 @@
         <v>674567</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>663755</v>
+        <v>663589</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>681977</v>
+        <v>681250</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9758035624623667</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9601637711613339</v>
+        <v>0.9599235809772863</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.986521781670742</v>
+        <v>0.9854712740672977</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1210</v>
@@ -4290,19 +4290,19 @@
         <v>1329182</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1317467</v>
+        <v>1317716</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1337114</v>
+        <v>1336795</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9861486308550742</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9774568863444817</v>
+        <v>0.9776411644411137</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9920332816525557</v>
+        <v>0.9917969143509253</v>
       </c>
     </row>
     <row r="24">
@@ -4397,7 +4397,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>6409</v>
+        <v>5675</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.002373963991330762</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.008231268535890414</v>
+        <v>0.007288650091351844</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>10</v>
@@ -4415,19 +4415,19 @@
         <v>12437</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>5837</v>
+        <v>6184</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>22009</v>
+        <v>24193</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0150534031015067</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.007064558257909422</v>
+        <v>0.007485661477657146</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0266395309622787</v>
+        <v>0.02928291598229961</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>12</v>
@@ -4436,19 +4436,19 @@
         <v>14285</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>8072</v>
+        <v>8131</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>24200</v>
+        <v>24390</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.008901668745672926</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.005030362321014224</v>
+        <v>0.005066718502941168</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01508052468155821</v>
+        <v>0.01519841662098695</v>
       </c>
     </row>
     <row r="26">
@@ -4465,7 +4465,7 @@
         <v>776735</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>772174</v>
+        <v>772908</v>
       </c>
       <c r="F26" s="5" t="n">
         <v>778583</v>
@@ -4474,7 +4474,7 @@
         <v>0.9976260360086693</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9917687314641095</v>
+        <v>0.9927113499086482</v>
       </c>
       <c r="I26" s="6" t="n">
         <v>1</v>
@@ -4486,19 +4486,19 @@
         <v>813730</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>804158</v>
+        <v>801974</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>820330</v>
+        <v>819983</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9849465968984933</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9733604690377213</v>
+        <v>0.9707170840177004</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9929354417420906</v>
+        <v>0.9925143385223428</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1493</v>
@@ -4507,19 +4507,19 @@
         <v>1590465</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1580550</v>
+        <v>1580360</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1596678</v>
+        <v>1596619</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9910983312543271</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9849194753184418</v>
+        <v>0.9848015833790137</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9949696376789859</v>
+        <v>0.9949332814970593</v>
       </c>
     </row>
     <row r="27">
@@ -4611,19 +4611,19 @@
         <v>16562</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>9755</v>
+        <v>10172</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>26133</v>
+        <v>26604</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.004879274846283883</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.002873844096630208</v>
+        <v>0.002996860386887679</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.007699113392036796</v>
+        <v>0.007837639328250353</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>51</v>
@@ -4632,19 +4632,19 @@
         <v>59131</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>44484</v>
+        <v>43633</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>77477</v>
+        <v>76641</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01668224299399591</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01254992486003398</v>
+        <v>0.01230997186565154</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02185821162063385</v>
+        <v>0.02162219928792054</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>68</v>
@@ -4653,19 +4653,19 @@
         <v>75693</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>60248</v>
+        <v>59391</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>96449</v>
+        <v>96026</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01090849597403151</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.008682720552651549</v>
+        <v>0.008559122334823345</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01389972972619363</v>
+        <v>0.0138387422318939</v>
       </c>
     </row>
     <row r="29">
@@ -4682,19 +4682,19 @@
         <v>3377788</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3368217</v>
+        <v>3367746</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3384595</v>
+        <v>3384178</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9951207251537161</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9923008866079628</v>
+        <v>0.9921623606717497</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9971261559033698</v>
+        <v>0.9970031396131124</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3287</v>
@@ -4703,19 +4703,19 @@
         <v>3485411</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3467065</v>
+        <v>3467901</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3500058</v>
+        <v>3500909</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9833177570060041</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9781417883793663</v>
+        <v>0.9783778007120795</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9874500751399662</v>
+        <v>0.9876900281343483</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6501</v>
@@ -4724,19 +4724,19 @@
         <v>6863199</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6842443</v>
+        <v>6842866</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6878644</v>
+        <v>6879501</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9890915040259685</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9861002702738065</v>
+        <v>0.9861612577681063</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9913172794473485</v>
+        <v>0.9914408776651767</v>
       </c>
     </row>
     <row r="30">
